--- a/metadata/pulley_key.xlsx
+++ b/metadata/pulley_key.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10614"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10211"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cole/Dropbox/emory/projects/mental_models/pulley_experiments/materials/metadata/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bronwyntarr/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FF639F8-B03F-9F46-B38B-0DAC3674F5AF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C32D5E3-1883-DB4A-8010-777A188AE2BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="500" windowWidth="23000" windowHeight="17200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14100" yWindow="2240" windowWidth="17620" windowHeight="18760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,96 +22,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
-    <t>MA1_A_0.tex</t>
-  </si>
-  <si>
-    <t>MA1_A_1.tex</t>
-  </si>
-  <si>
-    <t>MA1_A_2.tex</t>
-  </si>
-  <si>
-    <t>MA1_B_0.tex</t>
-  </si>
-  <si>
-    <t>MA1_B_1.tex</t>
-  </si>
-  <si>
-    <t>MA1_B_2.tex</t>
-  </si>
-  <si>
-    <t>MA2_A_0.tex</t>
-  </si>
-  <si>
-    <t>MA2_A_1.tex</t>
-  </si>
-  <si>
-    <t>MA2_A_2.tex</t>
-  </si>
-  <si>
-    <t>MA2_B_0.tex</t>
-  </si>
-  <si>
-    <t>MA2_B_1.tex</t>
-  </si>
-  <si>
-    <t>MA2_B_2.tex</t>
-  </si>
-  <si>
-    <t>MA3_A_0.tex</t>
-  </si>
-  <si>
-    <t>MA3_A_1.tex</t>
-  </si>
-  <si>
-    <t>MA3_A_2.tex</t>
-  </si>
-  <si>
-    <t>MA3_B_0.tex</t>
-  </si>
-  <si>
-    <t>MA3_B_1.tex</t>
-  </si>
-  <si>
-    <t>MA3_B_2.tex</t>
-  </si>
-  <si>
-    <t>MA4_A_0.tex</t>
-  </si>
-  <si>
-    <t>MA4_A_1.tex</t>
-  </si>
-  <si>
-    <t>MA4_A_2.tex</t>
-  </si>
-  <si>
-    <t>MA4_B_0.tex</t>
-  </si>
-  <si>
-    <t>MA4_B_1.tex</t>
-  </si>
-  <si>
-    <t>MA4_B_2.tex</t>
-  </si>
-  <si>
-    <t>MA5_A_0.tex</t>
-  </si>
-  <si>
-    <t>MA5_A_1.tex</t>
-  </si>
-  <si>
-    <t>MA5_A_2.tex</t>
-  </si>
-  <si>
-    <t>MA5_B_0.tex</t>
-  </si>
-  <si>
-    <t>MA5_B_1.tex</t>
-  </si>
-  <si>
-    <t>MA5_B_2.tex</t>
-  </si>
-  <si>
     <t>num_pulleys</t>
   </si>
   <si>
@@ -119,6 +29,96 @@
   </si>
   <si>
     <t>key</t>
+  </si>
+  <si>
+    <t>MA1_A_0</t>
+  </si>
+  <si>
+    <t>MA1_A_1</t>
+  </si>
+  <si>
+    <t>MA1_A_2</t>
+  </si>
+  <si>
+    <t>MA1_B_0</t>
+  </si>
+  <si>
+    <t>MA1_B_1</t>
+  </si>
+  <si>
+    <t>MA1_B_2</t>
+  </si>
+  <si>
+    <t>MA2_A_0</t>
+  </si>
+  <si>
+    <t>MA2_A_1</t>
+  </si>
+  <si>
+    <t>MA2_A_2</t>
+  </si>
+  <si>
+    <t>MA2_B_0</t>
+  </si>
+  <si>
+    <t>MA2_B_1</t>
+  </si>
+  <si>
+    <t>MA2_B_2</t>
+  </si>
+  <si>
+    <t>MA3_A_0</t>
+  </si>
+  <si>
+    <t>MA3_A_1</t>
+  </si>
+  <si>
+    <t>MA3_A_2</t>
+  </si>
+  <si>
+    <t>MA3_B_0</t>
+  </si>
+  <si>
+    <t>MA3_B_1</t>
+  </si>
+  <si>
+    <t>MA3_B_2</t>
+  </si>
+  <si>
+    <t>MA4_A_0</t>
+  </si>
+  <si>
+    <t>MA4_A_1</t>
+  </si>
+  <si>
+    <t>MA4_A_2</t>
+  </si>
+  <si>
+    <t>MA4_B_0</t>
+  </si>
+  <si>
+    <t>MA4_B_1</t>
+  </si>
+  <si>
+    <t>MA4_B_2</t>
+  </si>
+  <si>
+    <t>MA5_A_0</t>
+  </si>
+  <si>
+    <t>MA5_A_1</t>
+  </si>
+  <si>
+    <t>MA5_A_2</t>
+  </si>
+  <si>
+    <t>MA5_B_0</t>
+  </si>
+  <si>
+    <t>MA5_B_1</t>
+  </si>
+  <si>
+    <t>MA5_B_2</t>
   </si>
 </sst>
 </file>
@@ -201,9 +201,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -241,9 +241,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -276,26 +276,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -328,26 +311,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -524,7 +490,7 @@
   <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -535,18 +501,18 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>31</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -557,7 +523,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -568,7 +534,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -579,7 +545,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -590,10 +556,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C6">
         <v>2</v>
@@ -601,18 +567,18 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B7">
         <v>3</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B8">
         <v>2</v>
@@ -623,29 +589,29 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C9">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C10">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B11">
         <v>2</v>
@@ -656,73 +622,73 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C12">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C13">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B14">
         <v>2</v>
       </c>
       <c r="C14">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B15">
         <v>3</v>
       </c>
       <c r="C15">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B16">
         <v>4</v>
       </c>
       <c r="C16">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C17">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>4</v>
@@ -733,7 +699,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>5</v>
@@ -744,7 +710,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B20">
         <v>3</v>
@@ -755,7 +721,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B21">
         <v>4</v>
@@ -766,7 +732,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B22">
         <v>5</v>
@@ -777,7 +743,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B23">
         <v>3</v>
@@ -788,7 +754,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B24">
         <v>4</v>
@@ -799,7 +765,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B25">
         <v>5</v>
@@ -810,7 +776,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B26">
         <v>5</v>
@@ -821,7 +787,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B27">
         <v>6</v>
@@ -832,7 +798,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B28">
         <v>7</v>
@@ -843,7 +809,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B29">
         <v>3</v>
@@ -854,7 +820,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B30">
         <v>4</v>
@@ -865,7 +831,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B31">
         <v>5</v>
